--- a/data/income_statement/2digits/size/62_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/62_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>62-Computer programming, consultancy and related activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>62-Computer programming, consultancy and related activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,527 +841,597 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>707031.4406900001</v>
+        <v>752271.08511</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>845516.9378899999</v>
+        <v>887030.40353</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1153088.83395</v>
+        <v>1194945.08844</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1204630.65274</v>
+        <v>1269441.32054</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1244397.76079</v>
+        <v>1333303.09042</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1400859.94236</v>
+        <v>1513887.6509</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1651758.72447</v>
+        <v>1812224.44302</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1905415.14114</v>
+        <v>2115637.13594</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1991421.03954</v>
+        <v>2245883.12514</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4228460.79644</v>
+        <v>4547403.00129</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5174541.64024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5738441.05743</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6926614.145</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>645176.1365599999</v>
+        <v>683347.4527500001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>788417.2060499999</v>
+        <v>819740.36201</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1072090.05277</v>
+        <v>1107636.70119</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1103537.53842</v>
+        <v>1159145.73865</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1137017.34503</v>
+        <v>1212872.73039</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1274455.54293</v>
+        <v>1372769.08996</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1500637.14755</v>
+        <v>1638526.03805</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1734844.61787</v>
+        <v>1916311.68925</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1794085.58498</v>
+        <v>2016113.97753</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3737093.6095</v>
+        <v>3998027.07638</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4326137.690350001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4808102.93967</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6032580.563</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>43581.31512</v>
+        <v>47375.47965</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>41558.17991</v>
+        <v>47860.38658</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>60380.90889</v>
+        <v>62811.21747</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>74814.88223</v>
+        <v>79579.52588</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>75814.19031999999</v>
+        <v>83344.63564000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>91845.0517</v>
+        <v>102927.1214</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>107144.28691</v>
+        <v>119165.70854</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>120102.23579</v>
+        <v>139342.69687</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>146345.8919</v>
+        <v>165001.0378</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>371512.30882</v>
+        <v>413649.82523</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>707477.87508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>768219.61739</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>707500.816</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>18273.98901</v>
+        <v>21548.15271</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>15541.55193</v>
+        <v>19429.65494</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>20617.87229</v>
+        <v>24497.16978</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>26278.23209</v>
+        <v>30716.05601</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>31566.22544</v>
+        <v>37085.72439</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>34559.34772999999</v>
+        <v>38191.43954</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>43977.29001</v>
+        <v>54532.69643</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>50468.28748</v>
+        <v>59982.74982</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>50989.56266</v>
+        <v>64768.10981</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>119854.87812</v>
+        <v>135726.09968</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>140926.07481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>162118.50037</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>186532.766</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>6971.02492</v>
+        <v>7652.78222</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>7305.22571</v>
+        <v>7912.77139</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>8327.73849</v>
+        <v>8983.681550000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>14531.99153</v>
+        <v>16046.87005</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>12315.81505</v>
+        <v>13250.78819</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>9721.32265</v>
+        <v>10481.37153</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>13153.99672</v>
+        <v>14734.24247</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>19175.87258</v>
+        <v>23114.19647</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>12767.78397</v>
+        <v>15373.94257</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>86689.54062</v>
+        <v>91603.02898999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>64903.20903</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>70635.95865</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>189537.837</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5440.00997</v>
+        <v>6113.46828</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>6188.100280000001</v>
+        <v>6780.63859</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>6109.500379999999</v>
+        <v>6479.6202</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>7886.472860000001</v>
+        <v>8886.5411</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>7776.16222</v>
+        <v>8617.570240000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>7082.85305</v>
+        <v>7808.34935</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>10498.59711</v>
+        <v>11894.1536</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>16040.31206</v>
+        <v>19754.46515</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>11525.43551</v>
+        <v>14041.92679</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>82621.50281000001</v>
+        <v>87458.50109999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>59996.99271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>65658.04231</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>182641.606</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1506.07499</v>
+        <v>1513.12172</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1058.54861</v>
+        <v>1069.57598</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1618.33501</v>
+        <v>1623.87289</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>6561.37149</v>
+        <v>6738.691339999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>4048.89803</v>
+        <v>4084.18757</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2452.47708</v>
+        <v>2481.38484</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1246.63882</v>
+        <v>1401.92148</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>960.10146</v>
+        <v>1132.48454</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>890.42456</v>
+        <v>928.73934</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2888.47885</v>
+        <v>2960.19863</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3833.07229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3881.98696</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3620.397</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>24.93996</v>
+        <v>26.19222</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>58.57682</v>
+        <v>62.55682</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>599.9031</v>
+        <v>880.18846</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>84.14717999999999</v>
+        <v>421.63761</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>490.7548</v>
+        <v>549.03038</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>185.99252</v>
+        <v>191.63734</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1408.76079</v>
+        <v>1438.16739</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2175.45906</v>
+        <v>2227.24678</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>351.9239</v>
+        <v>403.27644</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1179.55896</v>
+        <v>1184.32926</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1073.14403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1095.92938</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3275.834</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>700060.41577</v>
+        <v>744618.3028899999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>838211.7121799999</v>
+        <v>879117.63214</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1144761.09546</v>
+        <v>1185961.40689</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1190098.66121</v>
+        <v>1253394.45049</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1232081.94574</v>
+        <v>1320052.30223</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1391138.61971</v>
+        <v>1503406.27937</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1638604.72775</v>
+        <v>1797490.20055</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1886239.26856</v>
+        <v>2092522.93947</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1978653.25557</v>
+        <v>2230509.18257</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4141771.25582</v>
+        <v>4455799.9723</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5109638.43121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5667805.09878</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6737076.308</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>440367.69094</v>
+        <v>459900.3947</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>555306.56463</v>
+        <v>570656.6185</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>770791.06053</v>
+        <v>790150.19802</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>782598.6893099999</v>
+        <v>809309.99237</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>765461.0374500001</v>
+        <v>802720.60935</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>862698.81385</v>
+        <v>914352.95889</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1019640.2958</v>
+        <v>1112607.82606</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1210406.01749</v>
+        <v>1308366.26647</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1216494.86093</v>
+        <v>1324969.29605</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2535999.71265</v>
+        <v>2693178.39298</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3268536.91056</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3573254.87383</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4235657.606</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>10759.82915</v>
+        <v>10912.96091</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>14307.85581</v>
+        <v>14995.1538</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>17718.7911</v>
+        <v>18612.47028</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>19001.4335</v>
+        <v>21151.07332</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>18314.63555</v>
+        <v>19783.41106</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>29527.39273</v>
+        <v>31959.83004</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>23332.82175</v>
+        <v>26844.37196</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>25652.31363</v>
+        <v>30678.75342</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>46533.52201</v>
+        <v>51914.89035</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>64184.03765999999</v>
+        <v>71408.43225</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>89072.79145999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>96640.03664000001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>159266.901</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>273530.10839</v>
+        <v>282774.65363</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>353019.89027</v>
+        <v>359482.21912</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>499842.7330299999</v>
+        <v>508398.67657</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>502020.01044</v>
+        <v>512593.2491</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>414470.73524</v>
+        <v>430973.7703</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>415910.21804</v>
+        <v>437441.88067</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>525955.9869700001</v>
+        <v>566502.4338999999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>664073.5705599999</v>
+        <v>697150.3073999999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>562213.8702799999</v>
+        <v>598858.10992</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1235654.17852</v>
+        <v>1313199.31687</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1429607.38462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1600278.66291</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2211301.7</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>155455.57371</v>
+        <v>165473.09914</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>187509.36836</v>
+        <v>195654.58964</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>252296.50137</v>
+        <v>262206.01614</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>260187.71395</v>
+        <v>274176.13853</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>331724.46091</v>
+        <v>350913.85874</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>414471.23845</v>
+        <v>442113.20094</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>466644.80349</v>
+        <v>514582.47082</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>514433.37215</v>
+        <v>573862.27335</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>600516.98766</v>
+        <v>665801.95183</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1224879.2503</v>
+        <v>1294932.94134</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1677049.63351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1801925.37775</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1826033.207</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>622.1796899999999</v>
+        <v>739.68102</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>469.45019</v>
+        <v>524.65594</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>933.03503</v>
@@ -1469,616 +1440,696 @@
         <v>1389.53142</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>951.20575</v>
+        <v>1049.56925</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2789.96463</v>
+        <v>2838.04724</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>3706.68359</v>
+        <v>4678.549379999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>6246.76115</v>
+        <v>6674.932299999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>7230.48098</v>
+        <v>8394.343949999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>11282.24617</v>
+        <v>13637.70252</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>72807.10097</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>74410.79653000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>39055.798</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>259692.72483</v>
+        <v>284717.90819</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>282905.14755</v>
+        <v>308461.01364</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>373970.03493</v>
+        <v>395811.20887</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>407499.9719</v>
+        <v>444084.45812</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>466620.9082900001</v>
+        <v>517331.69288</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>528439.80586</v>
+        <v>589053.32048</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>618964.43195</v>
+        <v>684882.37449</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>675833.25107</v>
+        <v>784156.673</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>762158.39464</v>
+        <v>905539.8865199999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1605771.54317</v>
+        <v>1762621.57932</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1841101.52065</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2094550.22495</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2501418.702</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>213810.2282</v>
+        <v>231711.96333</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>231252.40962</v>
+        <v>250113.09876</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>300961.42835</v>
+        <v>321841.35757</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>339587.63621</v>
+        <v>372139.58349</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>395288.72261</v>
+        <v>437181.10421</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>463427.59547</v>
+        <v>518326.95481</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>538254.02093</v>
+        <v>622125.1836900001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>604819.06274</v>
+        <v>717857.3012699999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>683361.23586</v>
+        <v>830632.18449</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1290742.29115</v>
+        <v>1418386.00508</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1477293.12809</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1676941.08405</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1857136.597</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>22427.90185</v>
+        <v>26814.24361</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>21357.28791</v>
+        <v>26566.09398</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>25491.9301</v>
+        <v>28885.34168</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>35305.80054</v>
+        <v>41513.43632</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>40279.35925</v>
+        <v>47730.33914</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>42018.18502</v>
+        <v>51556.13042</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>53493.36279</v>
+        <v>68801.17231000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>66860.21788</v>
+        <v>88539.77078000001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>68704.65510999999</v>
+        <v>102860.82689</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>147012.00938</v>
+        <v>165264.65523</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>155554.13439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>190230.42572</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>220804.533</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>26438.90274</v>
+        <v>28734.39117</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>30384.41991</v>
+        <v>32239.46314</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>37319.64384</v>
+        <v>38899.41454999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>37924.52575</v>
+        <v>41508.67873</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>42097.6204</v>
+        <v>46930.64825</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>50746.27669</v>
+        <v>56167.9744</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>54382.69923</v>
+        <v>60826.05043</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>60998.6875</v>
+        <v>71423.36128</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>71925.63203000001</v>
+        <v>80610.65165</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>156309.0467</v>
+        <v>166267.66226</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>170414.36273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>186851.27477</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>191881.765</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>164943.42361</v>
+        <v>176163.32855</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>179510.7018</v>
+        <v>191307.54164</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>238149.85441</v>
+        <v>254056.60134</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>266357.30992</v>
+        <v>289117.46844</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>312911.74296</v>
+        <v>342520.11682</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>370663.13376</v>
+        <v>410602.84999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>430377.95891</v>
+        <v>492497.96095</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>476960.15736</v>
+        <v>557894.1692100001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>542730.94872</v>
+        <v>647160.7059500001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>987421.2350700001</v>
+        <v>1086853.68759</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1151324.63097</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1299859.38356</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1444450.299</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>45882.49663</v>
+        <v>53005.94486</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>51652.73793</v>
+        <v>58347.91488</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>73008.60657999999</v>
+        <v>73969.85129999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>67912.33568999999</v>
+        <v>71944.87462999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>71332.18568000001</v>
+        <v>80150.58867</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>65012.21039</v>
+        <v>70726.36567</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>80710.41102</v>
+        <v>62757.1908</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>71014.18833</v>
+        <v>66299.37173</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>78797.15878</v>
+        <v>74907.70203</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>315029.25202</v>
+        <v>344235.57424</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>363808.39256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>417609.1409</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>644282.105</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>11258.87963</v>
+        <v>55885.69723</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>10006.36433</v>
+        <v>15277.18006</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>14145.13577</v>
+        <v>21509.19763</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>11275.88323</v>
+        <v>44265.11033</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>17296.72306</v>
+        <v>46902.81838</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>17874.29492</v>
+        <v>43821.49475</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>22795.02198</v>
+        <v>101161.55332</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>25663.54437</v>
+        <v>104045.31591</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>25099.56343</v>
+        <v>196124.30924</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>153062.3924</v>
+        <v>371314.66263</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>101317.22088</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>250727.82593</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>791459.89</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>6.70852</v>
+        <v>1589.61766</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0.69147</v>
+        <v>7.937609999999999</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>32.4175</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>0.43959</v>
+        <v>7603.58127</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>417.68937</v>
+        <v>6934.14637</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>45.40226999999999</v>
+        <v>4306.82201</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>624.33533</v>
+        <v>20029.94721</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>687.3444499999999</v>
+        <v>28009.94698</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>75.703</v>
+        <v>25536.33628</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>114.56537</v>
+        <v>19974.63813</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1053.67521</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>30113.9951</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>26178.55</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0.8477899999999999</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>0.00155</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0</v>
+        <v>0.00111</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>7.059</v>
+        <v>10550.77637</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0.50652</v>
+        <v>11570.94904</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0.19689</v>
+        <v>5034.598019999999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0.45349</v>
+        <v>16581.79535</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>765.99708</v>
+        <v>6747.720490000001</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>118.38407</v>
+        <v>46028.74539</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>54.48504</v>
+        <v>31368.59619</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>76.05323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>4450.04839</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>55218.791</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1765.55231</v>
+        <v>3323.38191</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1712.51487</v>
+        <v>2783.59338</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2199.00102</v>
+        <v>3290.97694</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2397.66779</v>
+        <v>4227.17109</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2606.72217</v>
+        <v>4658.14862</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3559.02799</v>
+        <v>9694.028829999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3351.19608</v>
+        <v>11206.80751</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3524.04348</v>
+        <v>12322.17835</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4430.93645</v>
+        <v>19060.31545</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>18106.06982</v>
+        <v>35260.23673</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>20482.21503</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>41530.16625</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>44960.985</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>421.59993</v>
+        <v>458.01951</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>287.32467</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>495.71528</v>
+        <v>585.17268</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>562.6082299999999</v>
+        <v>618.6939100000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>601.79558</v>
+        <v>615.08464</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>709.66389</v>
+        <v>1169.04134</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1011.27802</v>
+        <v>1120.87937</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>948.56759</v>
+        <v>7715.169370000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>766.08905</v>
+        <v>909.1047199999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1542.73934</v>
+        <v>1637.20932</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>3053.73985</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>3349.95064</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>8281.563</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>26.63087</v>
+        <v>26.83087</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>97.75749</v>
+        <v>97.95749000000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>237.67526</v>
+        <v>293.69486</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>433.21475</v>
+        <v>1696.46126</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>378.79921</v>
+        <v>379.2964</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>93.85718</v>
+        <v>775.11738</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>167.43477</v>
+        <v>397.83589</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>327.46514</v>
+        <v>365.56027</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>575.52436</v>
+        <v>627.65158</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2534.1095</v>
+        <v>2579.54064</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>885.5216700000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1921.7665</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>10473.275</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>391.38339</v>
+        <v>31890.55456</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>327.64075</v>
+        <v>408.01278</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>353.41422</v>
+        <v>1143.93853</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>325.73043</v>
+        <v>1226.86031</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>345.66813</v>
+        <v>1387.23826</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1020.22645</v>
+        <v>1813.23555</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>380.8266</v>
+        <v>7354.88168</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>484.31181</v>
+        <v>3152.22059</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>458.76412</v>
+        <v>57850.65091</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1482.69411</v>
+        <v>41005.27194</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2566.78784</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>22698.81138</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>42115.213</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>4043.30619</v>
+        <v>13106.45132</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>3241.14811</v>
+        <v>6898.660730000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>5862.05935</v>
+        <v>9796.968010000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3804.24163</v>
+        <v>12315.21982</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>6909.55854</v>
+        <v>10480.63542</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>6776.01596</v>
+        <v>12613.04012</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>12445.31171</v>
+        <v>35249.94805</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>12494.07431</v>
+        <v>33022.5524</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>12329.26404</v>
+        <v>36266.03739</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>114686.47456</v>
+        <v>220915.63833</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>52038.21472</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>115682.82263</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>558701.254</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>33.78773</v>
+        <v>38.00017</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>23.6065</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>33.43662</v>
+        <v>76.53721</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>23.11651</v>
+        <v>83.71750999999999</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>43.58537</v>
+        <v>190.6979</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>32.92575</v>
+        <v>126.79075</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>15.69355</v>
+        <v>254.97634</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>12.66995</v>
+        <v>48.62195</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>33.84376</v>
+        <v>183.57931</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>56.71378</v>
+        <v>500.06504</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>43.45614</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>3275.38102</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>9265.103999999999</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>6.82283</v>
@@ -2102,10 +2153,10 @@
         <v>10.359</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>5.74162</v>
+        <v>19.90269</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>9.897200000000002</v>
+        <v>12.99956</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>83.90366</v>
@@ -2113,284 +2164,324 @@
       <c r="M34" s="48" t="n">
         <v>186.21761</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>242.847</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>4562.240070000001</v>
+        <v>5445.17061</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4262.11232</v>
+        <v>4716.5172</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>4931.41652</v>
+        <v>6289.49079</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3719.87784</v>
+        <v>5940.70133</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>5984.32884</v>
+        <v>10678.5524</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>5630.14345</v>
+        <v>8281.98566</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>4788.13343</v>
+        <v>8954.12292</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6413.32894</v>
+        <v>12641.44282</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>6301.15738</v>
+        <v>9648.888650000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>14400.63722</v>
+        <v>17989.56265</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>20931.33958</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>27518.66641</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>36022.308</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>6818.2885</v>
+        <v>21184.51579</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>6336.90157</v>
+        <v>10331.80593</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>10835.41757</v>
+        <v>12872.54185</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>6994.149219999999</v>
+        <v>17266.5671</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>9457.671420000001</v>
+        <v>18623.54898</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>10136.07639</v>
+        <v>15909.35153</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>12522.46172</v>
+        <v>36914.03921</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>20584.57681</v>
+        <v>43294.06564</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>17141.83096</v>
+        <v>49686.78984</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>110021.27277</v>
+        <v>227631.04834</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>74575.64735</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>147809.81339</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>609233.833</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>949.09126</v>
+        <v>956.9878100000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>830.4804399999999</v>
+        <v>839.3404300000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>837.9633100000001</v>
+        <v>861.94539</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>661.2092700000001</v>
+        <v>707.6394799999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>858.31272</v>
+        <v>954.6826600000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>485.50881</v>
+        <v>512.09675</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>900.3179</v>
+        <v>936.62985</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>926.0681099999999</v>
+        <v>1047.37823</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1076.92443</v>
+        <v>1672.00936</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2485.65596</v>
+        <v>22489.75347</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3798.38897</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4811.40354</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>7056.865</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>320.94782</v>
+        <v>561.94104</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>669.15174</v>
+        <v>812.16839</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>342.96931</v>
+        <v>751.3816999999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1328.59016</v>
+        <v>2983.75655</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>824.54074</v>
+        <v>865.84074</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>747.93427</v>
+        <v>778.77989</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>711.24026</v>
+        <v>1833.72054</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>8489.695659999999</v>
+        <v>8694.65848</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2678.30562</v>
+        <v>3496.91864</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>11084.41292</v>
+        <v>13542.39</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>11936.55234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>14453.04777</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3757.932</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>38.26541</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>54.69598000000001</v>
+        <v>54.9951</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>52.1222</v>
+        <v>68.38344000000001</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>58.57281</v>
+        <v>1088.77035</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>66.31910000000001</v>
+        <v>274.31313</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>45.69091</v>
+        <v>67.15492999999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>27.08546</v>
+        <v>375.21983</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>244.67463</v>
+        <v>1281.31998</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>24.89535</v>
+        <v>265.17004</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>310.26334</v>
+        <v>3809.18665</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>597.91832</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2008.27361</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3573.166</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>4596.93907</v>
+        <v>18684.05264</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>3645.83246</v>
+        <v>7259.915379999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>7723.2293</v>
+        <v>9199.710849999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>4229.61757</v>
+        <v>11579.79349</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5968.88349</v>
+        <v>14040.51496</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>7053.27014</v>
+        <v>12317.41421</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>9618.88132</v>
+        <v>30454.14433</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>9169.582</v>
+        <v>29893.95726</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>11107.6547</v>
+        <v>40745.08992</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>90844.90287999999</v>
+        <v>182380.32589</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>43993.18295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>111339.01907</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>577333.819</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0.00297</v>
+        <v>0.3832</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>0.9534199999999999</v>
+        <v>77.77592</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>17.24478</v>
+        <v>44.12387</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>12.5733</v>
+        <v>158.11339</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>16.96008</v>
+        <v>33.97405000000001</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0.6043200000000001</v>
+        <v>29.86987</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>11.33695</v>
+        <v>46.40938</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0.18995</v>
+        <v>47.72441000000001</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>694.5340699999999</v>
+        <v>694.6323199999999</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>30.77345</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>401.65129</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>89.648</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>24.98181</v>
@@ -2425,365 +2516,415 @@
       <c r="M42" s="48" t="n">
         <v>60.52847</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>303.956</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>888.06016</v>
+        <v>917.90388</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1096.49978</v>
+        <v>1325.14546</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1878.18003</v>
+        <v>1913.34455</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>695.32526</v>
+        <v>858.89399</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1727.03385</v>
+        <v>2330.07588</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1786.70291</v>
+        <v>2199.92243</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1252.88351</v>
+        <v>3273.00584</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1743.21687</v>
+        <v>2330.33972</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2253.86089</v>
+        <v>3459.87745</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>4575.23465</v>
+        <v>4688.491059999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>14158.30285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>14735.88964</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>17118.447</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>5535.202929999999</v>
+        <v>19667.66115</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>4013.5609</v>
+        <v>6741.590389999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>7077.045349999999</v>
+        <v>13669.65001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>6303.361519999999</v>
+        <v>13149.04491</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>6155.08748</v>
+        <v>13327.81913</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>8233.985129999999</v>
+        <v>15013.90543</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>9217.623529999999</v>
+        <v>18984.59038</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>11404.41662</v>
+        <v>23863.27359</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>13566.88978</v>
+        <v>35937.62875</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>33514.56449</v>
+        <v>71087.26302</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>49024.6652</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>88447.03281</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>76985.876</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>5327.53732</v>
+        <v>15445.29297</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>3949.97622</v>
+        <v>5806.03788</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>6994.79565</v>
+        <v>11893.55245</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>6124.02816</v>
+        <v>12801.10498</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5956.457530000001</v>
+        <v>12814.4549</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>7690.289330000001</v>
+        <v>14154.86</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>9090.381300000001</v>
+        <v>18162.64468</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>11142.18149</v>
+        <v>23028.45337</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>13281.4319</v>
+        <v>35138.42835</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>32764.10922</v>
+        <v>70304.23</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>48023.16603</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>85226.52556000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>75445.224</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>207.66561</v>
+        <v>4222.368179999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>63.58468</v>
+        <v>935.55251</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>82.24969999999999</v>
+        <v>1776.09756</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>179.33336</v>
+        <v>347.93993</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>198.62995</v>
+        <v>513.36423</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>543.6958000000001</v>
+        <v>859.04543</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>127.24223</v>
+        <v>821.9457</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>262.23513</v>
+        <v>834.8202199999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>285.45788</v>
+        <v>799.2004000000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>750.45527</v>
+        <v>783.03302</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1001.49917</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3220.50725</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1540.652</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>44787.88483</v>
+        <v>68039.46515</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>51308.63979</v>
+        <v>56551.69862</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>69241.27943000001</v>
+        <v>68936.85707</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>65890.70818</v>
+        <v>85794.37295</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>73016.14984</v>
+        <v>95102.03894</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>64516.44379</v>
+        <v>83624.60346</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>81765.34775</v>
+        <v>108020.11453</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>64688.73927000001</v>
+        <v>103187.34841</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>73188.00147</v>
+        <v>185407.59268</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>324555.80716</v>
+        <v>416831.92551</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>341525.30089</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>432080.12063</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>749522.286</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>5961.499110000001</v>
+        <v>7579.69514</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>6533.95454</v>
+        <v>7440.00462</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>6853.24221</v>
+        <v>9243.044539999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>9758.456990000001</v>
+        <v>12726.56239</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>8636.35468</v>
+        <v>51026.2728</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>11472.15968</v>
+        <v>15391.36165</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>12584.40205</v>
+        <v>27280.27239</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>17339.1718</v>
+        <v>26857.52145</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>20012.7723</v>
+        <v>24322.3699</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>32237.01642</v>
+        <v>38865.88578</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>48550.89845</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>61763.86244</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>86914.742</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>34.84668</v>
+        <v>57.69378</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>44.92687</v>
+        <v>63.08866</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>12.55319</v>
+        <v>14.7528</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>357.43993</v>
+        <v>965.30316</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>145.5666</v>
+        <v>160.15613</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>223.69191</v>
+        <v>343.40095</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>257.50993</v>
+        <v>293.40698</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>251.48997</v>
+        <v>325.93697</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>224.73577</v>
+        <v>281.16842</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>195.23979</v>
+        <v>240.14793</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1691.31462</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1893.72342</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1685.322</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>5926.65243</v>
+        <v>7522.00136</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>6489.027669999999</v>
+        <v>7376.91596</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>6840.68902</v>
+        <v>9228.291740000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>9401.01706</v>
+        <v>11761.25923</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>8490.78808</v>
+        <v>50866.11667</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>11248.46777</v>
+        <v>15047.9607</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>12326.89212</v>
+        <v>26986.86541</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>17087.68183</v>
+        <v>26531.58448</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>19788.03653</v>
+        <v>24041.20148</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>32041.77663</v>
+        <v>38625.73785</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>46859.58383</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>59870.13902</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>85229.42</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4624.0407</v>
+        <v>7616.028240000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>10001.43376</v>
+        <v>11254.7317</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>86283.80699</v>
+        <v>114323.02734</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>12005.16905</v>
+        <v>29142.1566</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>10225.93294</v>
+        <v>13125.49675</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>77273.88395999999</v>
+        <v>87011.20542</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>13867.41338</v>
+        <v>20453.81579</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>91657.32466</v>
+        <v>121793.23641</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>23233.2326</v>
+        <v>32252.27311</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>174106.00596</v>
+        <v>189990.91522</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>46566.16716</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>69932.82703</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>85256.16499999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>31.70678</v>
+        <v>178.66588</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>43.03084</v>
@@ -2792,7 +2933,7 @@
         <v>645.06133</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>348.34</v>
+        <v>1368.09384</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>282.45827</v>
@@ -2801,217 +2942,245 @@
         <v>686.31727</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1620.27099</v>
+        <v>1627.32073</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>830.86574</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>431.03442</v>
+        <v>442.42142</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>486.66985</v>
+        <v>487.04781</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>485.87273</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>506.20893</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>881.447</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>470.70255</v>
+        <v>744.00265</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>819.6210699999999</v>
+        <v>871.00348</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2025.19212</v>
+        <v>2390.50129</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1429.78675</v>
+        <v>1575.5453</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>345.38166</v>
+        <v>371.30058</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>703.24528</v>
+        <v>843.78023</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>501.69358</v>
+        <v>740.77626</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1249.7334</v>
+        <v>3960.13254</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1651.27828</v>
+        <v>2264.95746</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1928.80256</v>
+        <v>2058.74207</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1525.06542</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>6928.72311</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>7178.791</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4121.63137</v>
+        <v>6693.35971</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>9138.781849999999</v>
+        <v>10340.69738</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>83613.55354000001</v>
+        <v>111287.46472</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>10227.0423</v>
+        <v>26198.51746</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>9598.093010000001</v>
+        <v>12471.7379</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>75884.32140999999</v>
+        <v>85481.10791999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>11745.44881</v>
+        <v>18085.7188</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>89576.72551999999</v>
+        <v>117002.23813</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>21150.9199</v>
+        <v>29544.89423</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>171690.53355</v>
+        <v>187445.12534</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>44555.22901</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>62497.89499</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>77195.927</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>46125.34324</v>
+        <v>68003.13205</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>47841.16057</v>
+        <v>52736.97154</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-10189.28535</v>
+        <v>-36143.12573</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>63643.99612</v>
+        <v>69378.77873999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>71426.57158</v>
+        <v>133002.81499</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-1285.28049</v>
+        <v>12004.75969</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>80482.33642000001</v>
+        <v>114846.57113</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-9629.41359</v>
+        <v>8251.633449999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>69967.54117</v>
+        <v>177477.68947</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>182686.81762</v>
+        <v>265706.89607</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>343510.03218</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>423911.15604</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>751180.863</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>10100.50213</v>
+        <v>10814.04154</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>12073.36685</v>
+        <v>12928.04331</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>15220.17151</v>
+        <v>16543.98102</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>17130.31876</v>
+        <v>18603.78932</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>18606.34724</v>
+        <v>22993.1846</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>21174.68763</v>
+        <v>24360.42394</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>25146.52054</v>
+        <v>30597.70758</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>26433.01375</v>
+        <v>32453.43647</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>28527.33781</v>
+        <v>39671.20678</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>76703.7029</v>
+        <v>90574.90261</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>84880.73229</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>102922.49287</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>152561.032</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>36024.84111</v>
+        <v>57189.09050999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>35767.79372</v>
+        <v>39808.92823</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-25409.45686</v>
+        <v>-52687.10675</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>46513.67736</v>
+        <v>50774.98942000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>52820.22434</v>
+        <v>110009.63039</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-22459.96812</v>
+        <v>-12355.66425</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>55335.81588</v>
+        <v>84248.86354999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-36062.42734</v>
+        <v>-24201.80302</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>41440.20336</v>
+        <v>137806.48269</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>105983.11472</v>
+        <v>175131.99346</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>258629.29989</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>320988.66317</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>598619.831</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3654</v>
+        <v>3766</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3966</v>
+        <v>4090</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4498</v>
+        <v>4629</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4795</v>
+        <v>4982</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>5474</v>
+        <v>5730</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>6027</v>
+        <v>6343</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6515</v>
+        <v>6959</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>7258</v>
+        <v>7831</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>7972</v>
+        <v>8630</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>9733</v>
+        <v>10500</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>10635</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>12028</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>13983</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>